--- a/実行結果/お互いにDP(cost-infl_int__S_f_p2_egoTwitter).xlsx
+++ b/実行結果/お互いにDP(cost-infl_int__S_f_p2_egoTwitter).xlsx
@@ -1,26 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asatt\Documents\研究\お勉強\Programing\Go_diffusion_suppression2\実行結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDAAB846-003C-4F31-B70B-3D1DBCC488A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8F02B2D-2F78-45C4-ACCD-8BD35DAA62BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{AF5A29D8-0033-4990-A881-AC24DF8D624F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="1" xr2:uid="{AF5A29D8-0033-4990-A881-AC24DF8D624F}"/>
   </bookViews>
   <sheets>
     <sheet name="お互いにDP(cost-infl_int__S_f_p2_eg" sheetId="1" r:id="rId1"/>
+    <sheet name="4つ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>seed</t>
   </si>
@@ -103,7 +118,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.000%"/>
+    <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -695,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1075,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61EFAD-A529-45EC-83ED-12CFFC69C9DA}">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3645,4 +3660,1150 @@
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC6276B-08D9-4C4A-BCC9-F6C44A18F79F}">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>9.218</v>
+      </c>
+      <c r="C1">
+        <v>13.762</v>
+      </c>
+      <c r="D1">
+        <v>9.4039999999999999</v>
+      </c>
+      <c r="E1">
+        <v>9.3640000000000008</v>
+      </c>
+      <c r="F1">
+        <v>8.4139999999999997</v>
+      </c>
+      <c r="G1">
+        <v>13.467000000000001</v>
+      </c>
+      <c r="H1">
+        <f>B1-F1</f>
+        <v>0.80400000000000027</v>
+      </c>
+      <c r="I1" s="1">
+        <f>H1/B1</f>
+        <v>8.7220655239748354E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>17.297999999999998</v>
+      </c>
+      <c r="C2">
+        <v>13.609</v>
+      </c>
+      <c r="D2">
+        <v>17.867999999999999</v>
+      </c>
+      <c r="E2">
+        <v>18.059000000000001</v>
+      </c>
+      <c r="F2">
+        <v>17.132999999999999</v>
+      </c>
+      <c r="G2">
+        <v>13.442</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H36" si="0">B2-F2</f>
+        <v>0.16499999999999915</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:I36" si="1">H2/B2</f>
+        <v>9.5386749913284295E-3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1">
+        <f>AVERAGE(I1:I36)</f>
+        <v>2.9537729073057468E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>25.859000000000002</v>
+      </c>
+      <c r="C3">
+        <v>13.526</v>
+      </c>
+      <c r="D3">
+        <v>26.465</v>
+      </c>
+      <c r="E3">
+        <v>26.695</v>
+      </c>
+      <c r="F3">
+        <v>25.391999999999999</v>
+      </c>
+      <c r="G3">
+        <v>13.347</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>0.4670000000000023</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8059476391198509E-2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1">
+        <f>MAX(I1:I36)</f>
+        <v>0.10783985725437721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>34.506</v>
+      </c>
+      <c r="C4">
+        <v>13.667</v>
+      </c>
+      <c r="D4">
+        <v>35.164000000000001</v>
+      </c>
+      <c r="E4">
+        <v>33.503</v>
+      </c>
+      <c r="F4">
+        <v>31.949000000000002</v>
+      </c>
+      <c r="G4">
+        <v>13.285</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>2.5569999999999986</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4103054541239166E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>9.0109999999999992</v>
+      </c>
+      <c r="C5">
+        <v>17.606000000000002</v>
+      </c>
+      <c r="D5">
+        <v>9.3369999999999997</v>
+      </c>
+      <c r="E5">
+        <v>9.0890000000000004</v>
+      </c>
+      <c r="F5">
+        <v>8.1630000000000003</v>
+      </c>
+      <c r="G5">
+        <v>18.093</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.84799999999999898</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>9.4107202308289756E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>17.949000000000002</v>
+      </c>
+      <c r="C6">
+        <v>17.920999999999999</v>
+      </c>
+      <c r="D6">
+        <v>17.873999999999999</v>
+      </c>
+      <c r="E6">
+        <v>17.959</v>
+      </c>
+      <c r="F6">
+        <v>17.488</v>
+      </c>
+      <c r="G6">
+        <v>17.731999999999999</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.46100000000000207</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5683882110424092E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>26.521000000000001</v>
+      </c>
+      <c r="C7">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="D7">
+        <v>26.882999999999999</v>
+      </c>
+      <c r="E7">
+        <v>26.902000000000001</v>
+      </c>
+      <c r="F7">
+        <v>25.559000000000001</v>
+      </c>
+      <c r="G7">
+        <v>17.706</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.96199999999999974</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>3.6273142038384665E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>35.276000000000003</v>
+      </c>
+      <c r="C8">
+        <v>17.919</v>
+      </c>
+      <c r="D8">
+        <v>36.026000000000003</v>
+      </c>
+      <c r="E8">
+        <v>35.426000000000002</v>
+      </c>
+      <c r="F8">
+        <v>32.773000000000003</v>
+      </c>
+      <c r="G8">
+        <v>17.504999999999999</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>2.5030000000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>7.0954756775144567E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>9.7490000000000006</v>
+      </c>
+      <c r="C9">
+        <v>27.414000000000001</v>
+      </c>
+      <c r="D9">
+        <v>9.8789999999999996</v>
+      </c>
+      <c r="E9">
+        <v>9.9659999999999993</v>
+      </c>
+      <c r="F9">
+        <v>9.5790000000000006</v>
+      </c>
+      <c r="G9">
+        <v>27.172000000000001</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7437685916504249E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>17.959</v>
+      </c>
+      <c r="C10">
+        <v>27.428999999999998</v>
+      </c>
+      <c r="D10">
+        <v>17.882000000000001</v>
+      </c>
+      <c r="E10">
+        <v>18.625</v>
+      </c>
+      <c r="F10">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="G10">
+        <v>26.576000000000001</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.21900000000000119</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2194442897711521E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>26.376000000000001</v>
+      </c>
+      <c r="C11">
+        <v>27.065000000000001</v>
+      </c>
+      <c r="D11">
+        <v>26.914000000000001</v>
+      </c>
+      <c r="E11">
+        <v>27.786000000000001</v>
+      </c>
+      <c r="F11">
+        <v>26.713000000000001</v>
+      </c>
+      <c r="G11">
+        <v>26.850999999999999</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>-0.33699999999999974</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.2776766757658467E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>34.206000000000003</v>
+      </c>
+      <c r="C12">
+        <v>26.981999999999999</v>
+      </c>
+      <c r="D12">
+        <v>35.204999999999998</v>
+      </c>
+      <c r="E12">
+        <v>35.616999999999997</v>
+      </c>
+      <c r="F12">
+        <v>34.96</v>
+      </c>
+      <c r="G12">
+        <v>26.843</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>-0.75399999999999778</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.2042916447406823E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>8.9990000000000006</v>
+      </c>
+      <c r="C13">
+        <v>13.97</v>
+      </c>
+      <c r="D13">
+        <v>8.9489999999999998</v>
+      </c>
+      <c r="E13">
+        <v>9.1669999999999998</v>
+      </c>
+      <c r="F13">
+        <v>8.4860000000000007</v>
+      </c>
+      <c r="G13">
+        <v>14.316000000000001</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.5129999999999999</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>5.7006334037115219E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>17.638999999999999</v>
+      </c>
+      <c r="C14">
+        <v>14.226000000000001</v>
+      </c>
+      <c r="D14">
+        <v>17.579000000000001</v>
+      </c>
+      <c r="E14">
+        <v>18.103000000000002</v>
+      </c>
+      <c r="F14">
+        <v>17.53</v>
+      </c>
+      <c r="G14">
+        <v>13.851000000000001</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.10899999999999821</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>6.179488633142367E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>25.611999999999998</v>
+      </c>
+      <c r="C15">
+        <v>14.096</v>
+      </c>
+      <c r="D15">
+        <v>26.001000000000001</v>
+      </c>
+      <c r="E15">
+        <v>26.109000000000002</v>
+      </c>
+      <c r="F15">
+        <v>25.669</v>
+      </c>
+      <c r="G15">
+        <v>14.041</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>-5.700000000000216E-2</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.2255192878339125E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>33.371000000000002</v>
+      </c>
+      <c r="C16">
+        <v>14.263999999999999</v>
+      </c>
+      <c r="D16">
+        <v>34.289000000000001</v>
+      </c>
+      <c r="E16">
+        <v>34.058999999999997</v>
+      </c>
+      <c r="F16">
+        <v>33.31</v>
+      </c>
+      <c r="G16">
+        <v>14.118</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>6.0999999999999943E-2</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8279344340894771E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>8.6869999999999994</v>
+      </c>
+      <c r="C17">
+        <v>15.305</v>
+      </c>
+      <c r="D17">
+        <v>8.8840000000000003</v>
+      </c>
+      <c r="E17">
+        <v>9.1969999999999992</v>
+      </c>
+      <c r="F17">
+        <v>8.4260000000000002</v>
+      </c>
+      <c r="G17">
+        <v>15.493</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0.26099999999999923</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0044894670196758E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>17.486999999999998</v>
+      </c>
+      <c r="C18">
+        <v>15.821999999999999</v>
+      </c>
+      <c r="D18">
+        <v>17.513999999999999</v>
+      </c>
+      <c r="E18">
+        <v>18.27</v>
+      </c>
+      <c r="F18">
+        <v>17.058</v>
+      </c>
+      <c r="G18">
+        <v>15.432</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0.42899999999999849</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4532509864470666E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>24.885000000000002</v>
+      </c>
+      <c r="C19">
+        <v>15.577</v>
+      </c>
+      <c r="D19">
+        <v>24.79</v>
+      </c>
+      <c r="E19">
+        <v>27.004999999999999</v>
+      </c>
+      <c r="F19">
+        <v>25.771000000000001</v>
+      </c>
+      <c r="G19">
+        <v>15.253</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>-0.88599999999999923</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="1"/>
+        <v>-3.5603777375929242E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>33.978000000000002</v>
+      </c>
+      <c r="C20">
+        <v>15.429</v>
+      </c>
+      <c r="D20">
+        <v>34.332000000000001</v>
+      </c>
+      <c r="E20">
+        <v>34.633000000000003</v>
+      </c>
+      <c r="F20">
+        <v>33.470999999999997</v>
+      </c>
+      <c r="G20">
+        <v>15.336</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0.507000000000005</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4921419742186267E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>9.2509999999999994</v>
+      </c>
+      <c r="C21">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="D21">
+        <v>9.5129999999999999</v>
+      </c>
+      <c r="E21">
+        <v>9.9779999999999998</v>
+      </c>
+      <c r="F21">
+        <v>9.7780000000000005</v>
+      </c>
+      <c r="G21">
+        <v>17.289000000000001</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>-0.52700000000000102</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="1"/>
+        <v>-5.6966814398443526E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>18.227</v>
+      </c>
+      <c r="C22">
+        <v>17.376000000000001</v>
+      </c>
+      <c r="D22">
+        <v>18.646000000000001</v>
+      </c>
+      <c r="E22">
+        <v>17.568000000000001</v>
+      </c>
+      <c r="F22">
+        <v>17.117999999999999</v>
+      </c>
+      <c r="G22">
+        <v>17.09</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>1.1090000000000018</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0843803149174397E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>27.056000000000001</v>
+      </c>
+      <c r="C23">
+        <v>17.251000000000001</v>
+      </c>
+      <c r="D23">
+        <v>27.241</v>
+      </c>
+      <c r="E23">
+        <v>27.277999999999999</v>
+      </c>
+      <c r="F23">
+        <v>25.876999999999999</v>
+      </c>
+      <c r="G23">
+        <v>17.491</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>1.179000000000002</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="1"/>
+        <v>4.3576286221170976E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>35.255000000000003</v>
+      </c>
+      <c r="C24">
+        <v>17.521999999999998</v>
+      </c>
+      <c r="D24">
+        <v>35.323999999999998</v>
+      </c>
+      <c r="E24">
+        <v>35.154000000000003</v>
+      </c>
+      <c r="F24">
+        <v>34.28</v>
+      </c>
+      <c r="G24">
+        <v>17.071000000000002</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0.97500000000000142</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7655651680612719E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>8.9979999999999993</v>
+      </c>
+      <c r="C25">
+        <v>28.754000000000001</v>
+      </c>
+      <c r="D25">
+        <v>9.1940000000000008</v>
+      </c>
+      <c r="E25">
+        <v>9.0619999999999994</v>
+      </c>
+      <c r="F25">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="G25">
+        <v>28.062000000000001</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="1"/>
+        <v>6.090242276061348E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>17.934000000000001</v>
+      </c>
+      <c r="C26">
+        <v>29.11</v>
+      </c>
+      <c r="D26">
+        <v>18.359000000000002</v>
+      </c>
+      <c r="E26">
+        <v>17.484000000000002</v>
+      </c>
+      <c r="F26">
+        <v>16</v>
+      </c>
+      <c r="G26">
+        <v>28.058</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>1.9340000000000011</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.10783985725437721</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>26.524000000000001</v>
+      </c>
+      <c r="C27">
+        <v>29.021999999999998</v>
+      </c>
+      <c r="D27">
+        <v>27.148</v>
+      </c>
+      <c r="E27">
+        <v>26.04</v>
+      </c>
+      <c r="F27">
+        <v>24.513000000000002</v>
+      </c>
+      <c r="G27">
+        <v>28.140999999999998</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>2.0109999999999992</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="1"/>
+        <v>7.5818126979339429E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>34.018000000000001</v>
+      </c>
+      <c r="C28">
+        <v>29.003</v>
+      </c>
+      <c r="D28">
+        <v>34.948999999999998</v>
+      </c>
+      <c r="E28">
+        <v>35.085999999999999</v>
+      </c>
+      <c r="F28">
+        <v>32.734999999999999</v>
+      </c>
+      <c r="G28">
+        <v>27.605</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>1.2830000000000013</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="1"/>
+        <v>3.7715327179728413E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>8.8829999999999991</v>
+      </c>
+      <c r="C29">
+        <v>18.954000000000001</v>
+      </c>
+      <c r="D29">
+        <v>8.5540000000000003</v>
+      </c>
+      <c r="E29">
+        <v>9.3070000000000004</v>
+      </c>
+      <c r="F29">
+        <v>8.86</v>
+      </c>
+      <c r="G29">
+        <v>18.763999999999999</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999687E-2</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5892153551727672E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>17.847999999999999</v>
+      </c>
+      <c r="C30">
+        <v>18.709</v>
+      </c>
+      <c r="D30">
+        <v>18</v>
+      </c>
+      <c r="E30">
+        <v>18.317</v>
+      </c>
+      <c r="F30">
+        <v>17.55</v>
+      </c>
+      <c r="G30">
+        <v>18.538</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0.29799999999999827</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="1"/>
+        <v>1.669654863289995E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>26.573</v>
+      </c>
+      <c r="C31">
+        <v>18.591999999999999</v>
+      </c>
+      <c r="D31">
+        <v>26.675999999999998</v>
+      </c>
+      <c r="E31">
+        <v>26.948</v>
+      </c>
+      <c r="F31">
+        <v>25.096</v>
+      </c>
+      <c r="G31">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>1.4770000000000003</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="1"/>
+        <v>5.5582734354419912E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>33.659999999999997</v>
+      </c>
+      <c r="C32">
+        <v>19.088999999999999</v>
+      </c>
+      <c r="D32">
+        <v>34.247</v>
+      </c>
+      <c r="E32">
+        <v>35.106000000000002</v>
+      </c>
+      <c r="F32">
+        <v>33.555999999999997</v>
+      </c>
+      <c r="G32">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>0.1039999999999992</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0897207367795369E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>9.4649999999999999</v>
+      </c>
+      <c r="C33">
+        <v>19.164000000000001</v>
+      </c>
+      <c r="D33">
+        <v>9.5860000000000003</v>
+      </c>
+      <c r="E33">
+        <v>9.6959999999999997</v>
+      </c>
+      <c r="F33">
+        <v>9.0649999999999995</v>
+      </c>
+      <c r="G33">
+        <v>18.352</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="1"/>
+        <v>4.2260961436872725E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>18.164999999999999</v>
+      </c>
+      <c r="C34">
+        <v>18.616</v>
+      </c>
+      <c r="D34">
+        <v>18.556999999999999</v>
+      </c>
+      <c r="E34">
+        <v>19.071000000000002</v>
+      </c>
+      <c r="F34">
+        <v>18.149000000000001</v>
+      </c>
+      <c r="G34">
+        <v>18.169</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>1.5999999999998238E-2</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="1"/>
+        <v>8.8081475364702668E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>27.283000000000001</v>
+      </c>
+      <c r="C35">
+        <v>18.606999999999999</v>
+      </c>
+      <c r="D35">
+        <v>27.608000000000001</v>
+      </c>
+      <c r="E35">
+        <v>27.137</v>
+      </c>
+      <c r="F35">
+        <v>25.89</v>
+      </c>
+      <c r="G35">
+        <v>18.452999999999999</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>1.3930000000000007</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="1"/>
+        <v>5.1057435032804334E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>35.064999999999998</v>
+      </c>
+      <c r="C36">
+        <v>18.631</v>
+      </c>
+      <c r="D36">
+        <v>35.738</v>
+      </c>
+      <c r="E36">
+        <v>35.643000000000001</v>
+      </c>
+      <c r="F36">
+        <v>34.14</v>
+      </c>
+      <c r="G36">
+        <v>18.196999999999999</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>0.92499999999999716</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6379580778554033E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>